--- a/biology/Médecine/1235_en_santé_et_médecine/1235_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1235_en_santé_et_médecine/1235_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1235_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1235_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1235 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1235_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1235_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Première mention d'un hospice tenu par les hospitaliers de Saint-Jean à Gampisch, au col du Simplon, et voué à l'accueil des « marchands, pèlerins, indigents et malades[1],[2] ».
-En difficulté financière, l'hospice de Longomoso dans le Tyrol du Sud, attesté depuis 1211, est confié aux chevaliers de l'ordre Teutonique[3].
-Fondation de la léproserie d'Orchimont, dans le comté de Namur[4].
-Un petit hôpital Saint-Julien est attesté près de la fontaine de Bousson à Laon, ville du domaine royal de France[5].
-À Liège, en Flandre, l’hôpital Sainte-Catherine devient prieuré du Val-des-Écoliers[6].
-Vers 1235-1236 : fondation de l'hôpital Beaulieu à Issendolus, sur la route de Brive à Figeac, par les époux Guibert et Aygline de Thémines, établissement dirigé à partir de 1259, par les hospitalières de Saint-Jean et qui perdurera jusqu'à la Révolution[7],[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Première mention d'un hospice tenu par les hospitaliers de Saint-Jean à Gampisch, au col du Simplon, et voué à l'accueil des « marchands, pèlerins, indigents et malades, ».
+En difficulté financière, l'hospice de Longomoso dans le Tyrol du Sud, attesté depuis 1211, est confié aux chevaliers de l'ordre Teutonique.
+Fondation de la léproserie d'Orchimont, dans le comté de Namur.
+Un petit hôpital Saint-Julien est attesté près de la fontaine de Bousson à Laon, ville du domaine royal de France.
+À Liège, en Flandre, l’hôpital Sainte-Catherine devient prieuré du Val-des-Écoliers.
+Vers 1235-1236 : fondation de l'hôpital Beaulieu à Issendolus, sur la route de Brive à Figeac, par les époux Guibert et Aygline de Thémines, établissement dirigé à partir de 1259, par les hospitalières de Saint-Jean et qui perdurera jusqu'à la Révolution,.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1235_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1235_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Al-Tusi (1201-1274), également auteur d'un commentaire du Canon d'Avicenne et d'un traité de médecine théorique, le Qawanin al-tibb (« Principes de médecine »), termine la rédaction de l'Ahlaqê Nasirî, livre de morale dont il consacre un chapitre à l'étude des maladies psychosomatiques[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Al-Tusi (1201-1274), également auteur d'un commentaire du Canon d'Avicenne et d'un traité de médecine théorique, le Qawanin al-tibb (« Principes de médecine »), termine la rédaction de l'Ahlaqê Nasirî, livre de morale dont il consacre un chapitre à l'étude des maladies psychosomatiques.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1235_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1235_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Arnaud de Poitiers, médecin qui est encore au service de Saint Louis, après avoir été à celui de Philippe Auguste[10].
-Fl. Giraud, médecin, moine de l'abbaye d'Aulps[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Arnaud de Poitiers, médecin qui est encore au service de Saint Louis, après avoir été à celui de Philippe Auguste.
+Fl. Giraud, médecin, moine de l'abbaye d'Aulps.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1235_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1235_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vers 1235 : Nicolas de Pologne (mort vers 1316), médecin dominicain, probablement originaire de Silésie.</t>
         </is>
